--- a/data-science-bowl.xlsx
+++ b/data-science-bowl.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Attempt</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>Use dropout and batchnorm</t>
+  </si>
+  <si>
+    <t>30 sec/epoch. Data loading</t>
+  </si>
+  <si>
+    <t>A unet implemented in Pytorch 128 by 128 images, image normalization, batch size of 4, 10 epochs, 0.8-0.2 train-val split</t>
   </si>
 </sst>
 </file>
@@ -97,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -107,6 +113,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -388,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -448,6 +457,26 @@
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.40289999999999998</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.48349999999999999</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
